--- a/service-system/src/main/resources/static/摩擦系数-3车道.xlsx
+++ b/service-system/src/main/resources/static/摩擦系数-3车道.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\jjgys\jjgys-parent\service-system\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EDAB78B-5E2C-4118-9E33-88DAE94519F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B2DDDF-23F8-4633-B6D0-1F811F11FD86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="563" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -662,6 +662,72 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="183" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -701,71 +767,86 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -786,87 +867,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="19" applyBorder="1" applyAlignment="1">
@@ -1355,20 +1355,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
       <c r="M1" s="20"/>
       <c r="N1" s="20"/>
       <c r="O1" s="20"/>
@@ -1376,90 +1376,90 @@
       <c r="Q1" s="21"/>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
       <c r="E2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
       <c r="I2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
       <c r="I3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="40" t="s">
+      <c r="C4" s="25"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="36"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="40" t="s">
+      <c r="G4" s="25"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="35" t="s">
+      <c r="J4" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="36"/>
-      <c r="L4" s="37"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="26"/>
     </row>
     <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="40"/>
-      <c r="B5" s="35" t="s">
+      <c r="A5" s="27"/>
+      <c r="B5" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="35" t="s">
+      <c r="C5" s="25"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="36"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="35" t="s">
+      <c r="G5" s="25"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="36"/>
-      <c r="L5" s="37"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="26"/>
     </row>
     <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="40"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="11" t="s">
         <v>9</v>
       </c>
@@ -1469,7 +1469,7 @@
       <c r="D6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="40"/>
+      <c r="E6" s="27"/>
       <c r="F6" s="11" t="s">
         <v>9</v>
       </c>
@@ -1479,7 +1479,7 @@
       <c r="H6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="40"/>
+      <c r="I6" s="27"/>
       <c r="J6" s="11" t="s">
         <v>9</v>
       </c>
@@ -1929,119 +1929,136 @@
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
-      <c r="E38" s="38" t="s">
+      <c r="E38" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F38" s="39"/>
-      <c r="G38" s="24" t="s">
+      <c r="F38" s="23"/>
+      <c r="G38" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="26"/>
-      <c r="K38" s="26"/>
-      <c r="L38" s="27"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="47"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="49"/>
     </row>
     <row r="39" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="12"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
-      <c r="E39" s="41" t="s">
+      <c r="E39" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="42"/>
-      <c r="G39" s="47" t="s">
+      <c r="F39" s="29"/>
+      <c r="G39" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="H39" s="48"/>
-      <c r="I39" s="49"/>
-      <c r="J39" s="54"/>
-      <c r="K39" s="55"/>
-      <c r="L39" s="56"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="42"/>
+      <c r="L39" s="43"/>
     </row>
     <row r="40" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="12"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="47" t="s">
+      <c r="E40" s="30"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="H40" s="48"/>
-      <c r="I40" s="49"/>
-      <c r="J40" s="50"/>
-      <c r="K40" s="51"/>
-      <c r="L40" s="52"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="39"/>
     </row>
     <row r="41" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="12"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="53" t="s">
+      <c r="E41" s="30"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="H41" s="48"/>
-      <c r="I41" s="49"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="55"/>
-      <c r="L41" s="56"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="42"/>
+      <c r="L41" s="43"/>
     </row>
     <row r="42" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="12"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="46"/>
-      <c r="G42" s="47" t="s">
+      <c r="E42" s="32"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="H42" s="48"/>
-      <c r="I42" s="49"/>
-      <c r="J42" s="35"/>
-      <c r="K42" s="36"/>
-      <c r="L42" s="37"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="26"/>
     </row>
     <row r="43" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="12"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
-      <c r="E43" s="38" t="s">
+      <c r="E43" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F43" s="39"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="36"/>
-      <c r="J43" s="36"/>
-      <c r="K43" s="36"/>
-      <c r="L43" s="37"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="26"/>
     </row>
     <row r="44" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="12"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
-      <c r="E44" s="38" t="s">
+      <c r="E44" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="F44" s="39"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="36"/>
-      <c r="J44" s="36"/>
-      <c r="K44" s="36"/>
-      <c r="L44" s="37"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="F2:H3"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:L43"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="J4:L4"/>
     <mergeCell ref="E44:F44"/>
     <mergeCell ref="G44:L44"/>
     <mergeCell ref="A4:A6"/>
@@ -2058,23 +2075,6 @@
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="G39:I39"/>
     <mergeCell ref="J39:L39"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:L43"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="F2:H3"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:H5"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.86614173228346458" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
@@ -2112,20 +2112,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
       <c r="M1" s="20"/>
       <c r="N1" s="20"/>
       <c r="O1" s="20"/>
@@ -2133,90 +2133,90 @@
       <c r="Q1" s="21"/>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
       <c r="E2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
       <c r="I2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
       <c r="I3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="40" t="s">
+      <c r="C4" s="25"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="36"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="40" t="s">
+      <c r="G4" s="25"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="35" t="s">
+      <c r="J4" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="36"/>
-      <c r="L4" s="37"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="26"/>
     </row>
     <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="40"/>
-      <c r="B5" s="35" t="s">
+      <c r="A5" s="27"/>
+      <c r="B5" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="35" t="s">
+      <c r="C5" s="25"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="36"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="35" t="s">
+      <c r="G5" s="25"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="36"/>
-      <c r="L5" s="37"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="26"/>
     </row>
     <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="40"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="11" t="s">
         <v>9</v>
       </c>
@@ -2226,7 +2226,7 @@
       <c r="D6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="40"/>
+      <c r="E6" s="27"/>
       <c r="F6" s="11" t="s">
         <v>9</v>
       </c>
@@ -2236,7 +2236,7 @@
       <c r="H6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="40"/>
+      <c r="I6" s="27"/>
       <c r="J6" s="11" t="s">
         <v>9</v>
       </c>
@@ -2686,119 +2686,136 @@
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
-      <c r="E38" s="38" t="s">
+      <c r="E38" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F38" s="39"/>
-      <c r="G38" s="24" t="s">
+      <c r="F38" s="23"/>
+      <c r="G38" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="26"/>
-      <c r="K38" s="26"/>
-      <c r="L38" s="27"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="47"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="49"/>
     </row>
     <row r="39" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="12"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
-      <c r="E39" s="41" t="s">
+      <c r="E39" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="42"/>
-      <c r="G39" s="47" t="s">
+      <c r="F39" s="29"/>
+      <c r="G39" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="H39" s="48"/>
-      <c r="I39" s="49"/>
-      <c r="J39" s="54"/>
-      <c r="K39" s="55"/>
-      <c r="L39" s="56"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="42"/>
+      <c r="L39" s="43"/>
     </row>
     <row r="40" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="12"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="47" t="s">
+      <c r="E40" s="30"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="H40" s="48"/>
-      <c r="I40" s="49"/>
-      <c r="J40" s="50"/>
-      <c r="K40" s="51"/>
-      <c r="L40" s="52"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="39"/>
     </row>
     <row r="41" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="12"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="47" t="s">
+      <c r="E41" s="30"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="H41" s="48"/>
-      <c r="I41" s="49"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="55"/>
-      <c r="L41" s="56"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="42"/>
+      <c r="L41" s="43"/>
     </row>
     <row r="42" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="12"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="46"/>
-      <c r="G42" s="47" t="s">
+      <c r="E42" s="32"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="H42" s="48"/>
-      <c r="I42" s="49"/>
-      <c r="J42" s="35"/>
-      <c r="K42" s="36"/>
-      <c r="L42" s="37"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="26"/>
     </row>
     <row r="43" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="12"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
-      <c r="E43" s="38" t="s">
+      <c r="E43" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F43" s="39"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="36"/>
-      <c r="J43" s="36"/>
-      <c r="K43" s="36"/>
-      <c r="L43" s="37"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="26"/>
     </row>
     <row r="44" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="12"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
-      <c r="E44" s="38" t="s">
+      <c r="E44" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="F44" s="39"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="36"/>
-      <c r="J44" s="36"/>
-      <c r="K44" s="36"/>
-      <c r="L44" s="37"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="F2:H3"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:L43"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="J4:L4"/>
     <mergeCell ref="E44:F44"/>
     <mergeCell ref="G44:L44"/>
     <mergeCell ref="A4:A6"/>
@@ -2815,23 +2832,6 @@
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="G39:I39"/>
     <mergeCell ref="J39:L39"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:L43"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="F2:H3"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="J3:L3"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.86614173228346458" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
@@ -2867,20 +2867,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
       <c r="M1" s="20"/>
       <c r="N1" s="20"/>
       <c r="O1" s="20"/>
@@ -2888,90 +2888,90 @@
       <c r="Q1" s="21"/>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
       <c r="E2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
       <c r="I2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
       <c r="I3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="81" t="s">
+      <c r="C4" s="60"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="64" t="s">
+      <c r="F4" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="65"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="81" t="s">
+      <c r="G4" s="60"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="64" t="s">
+      <c r="J4" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="65"/>
-      <c r="L4" s="66"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="61"/>
     </row>
     <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="81"/>
-      <c r="B5" s="64" t="s">
+      <c r="A5" s="62"/>
+      <c r="B5" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="64" t="s">
+      <c r="C5" s="60"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="65"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="64" t="s">
+      <c r="G5" s="60"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="65"/>
-      <c r="L5" s="66"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="61"/>
     </row>
     <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="81"/>
+      <c r="A6" s="62"/>
       <c r="B6" s="14" t="s">
         <v>9</v>
       </c>
@@ -2981,7 +2981,7 @@
       <c r="D6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="81"/>
+      <c r="E6" s="62"/>
       <c r="F6" s="14" t="s">
         <v>9</v>
       </c>
@@ -2991,7 +2991,7 @@
       <c r="H6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="81"/>
+      <c r="I6" s="62"/>
       <c r="J6" s="14" t="s">
         <v>9</v>
       </c>
@@ -3441,119 +3441,136 @@
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
-      <c r="E38" s="79" t="s">
+      <c r="E38" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="F38" s="80"/>
-      <c r="G38" s="69" t="s">
+      <c r="F38" s="58"/>
+      <c r="G38" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="H38" s="70"/>
-      <c r="I38" s="70"/>
-      <c r="J38" s="71"/>
-      <c r="K38" s="71"/>
-      <c r="L38" s="72"/>
+      <c r="H38" s="81"/>
+      <c r="I38" s="81"/>
+      <c r="J38" s="82"/>
+      <c r="K38" s="82"/>
+      <c r="L38" s="83"/>
     </row>
     <row r="39" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="15"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
-      <c r="E39" s="82" t="s">
+      <c r="E39" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="83"/>
-      <c r="G39" s="73" t="s">
+      <c r="F39" s="64"/>
+      <c r="G39" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="H39" s="74"/>
-      <c r="I39" s="75"/>
-      <c r="J39" s="76"/>
-      <c r="K39" s="77"/>
-      <c r="L39" s="78"/>
+      <c r="H39" s="70"/>
+      <c r="I39" s="71"/>
+      <c r="J39" s="75"/>
+      <c r="K39" s="76"/>
+      <c r="L39" s="77"/>
     </row>
     <row r="40" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="15"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
-      <c r="E40" s="84"/>
-      <c r="F40" s="85"/>
-      <c r="G40" s="73" t="s">
+      <c r="E40" s="65"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="H40" s="74"/>
-      <c r="I40" s="75"/>
-      <c r="J40" s="88"/>
-      <c r="K40" s="89"/>
-      <c r="L40" s="90"/>
+      <c r="H40" s="70"/>
+      <c r="I40" s="71"/>
+      <c r="J40" s="72"/>
+      <c r="K40" s="73"/>
+      <c r="L40" s="74"/>
     </row>
     <row r="41" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="15"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
       <c r="D41" s="14"/>
-      <c r="E41" s="84"/>
-      <c r="F41" s="85"/>
-      <c r="G41" s="73" t="s">
+      <c r="E41" s="65"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="H41" s="74"/>
-      <c r="I41" s="75"/>
-      <c r="J41" s="76"/>
-      <c r="K41" s="77"/>
-      <c r="L41" s="78"/>
+      <c r="H41" s="70"/>
+      <c r="I41" s="71"/>
+      <c r="J41" s="75"/>
+      <c r="K41" s="76"/>
+      <c r="L41" s="77"/>
     </row>
     <row r="42" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="15"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
-      <c r="E42" s="86"/>
-      <c r="F42" s="87"/>
-      <c r="G42" s="73" t="s">
+      <c r="E42" s="67"/>
+      <c r="F42" s="68"/>
+      <c r="G42" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="H42" s="74"/>
-      <c r="I42" s="75"/>
-      <c r="J42" s="64"/>
-      <c r="K42" s="65"/>
-      <c r="L42" s="66"/>
+      <c r="H42" s="70"/>
+      <c r="I42" s="71"/>
+      <c r="J42" s="59"/>
+      <c r="K42" s="60"/>
+      <c r="L42" s="61"/>
     </row>
     <row r="43" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="15"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
-      <c r="E43" s="79" t="s">
+      <c r="E43" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="F43" s="80"/>
-      <c r="G43" s="64"/>
-      <c r="H43" s="65"/>
-      <c r="I43" s="65"/>
-      <c r="J43" s="65"/>
-      <c r="K43" s="65"/>
-      <c r="L43" s="66"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="59"/>
+      <c r="H43" s="60"/>
+      <c r="I43" s="60"/>
+      <c r="J43" s="60"/>
+      <c r="K43" s="60"/>
+      <c r="L43" s="61"/>
     </row>
     <row r="44" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="15"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
-      <c r="E44" s="79" t="s">
+      <c r="E44" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="F44" s="80"/>
-      <c r="G44" s="64"/>
-      <c r="H44" s="65"/>
-      <c r="I44" s="65"/>
-      <c r="J44" s="65"/>
-      <c r="K44" s="65"/>
-      <c r="L44" s="66"/>
+      <c r="F44" s="58"/>
+      <c r="G44" s="59"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="60"/>
+      <c r="J44" s="60"/>
+      <c r="K44" s="60"/>
+      <c r="L44" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="F2:H3"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:L43"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="J4:L4"/>
     <mergeCell ref="E44:F44"/>
     <mergeCell ref="G44:L44"/>
     <mergeCell ref="A4:A6"/>
@@ -3570,23 +3587,6 @@
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="G39:I39"/>
     <mergeCell ref="J39:L39"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:L43"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="F2:H3"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="J3:L3"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.86614173228346403" right="0.78740157480314998" top="0.74803149606299202" bottom="0.74803149606299202" header="0.47244094488188998" footer="0.47244094488188998"/>
@@ -3622,20 +3622,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
       <c r="M1" s="20"/>
       <c r="N1" s="20"/>
       <c r="O1" s="20"/>
@@ -3643,90 +3643,90 @@
       <c r="Q1" s="21"/>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
       <c r="E2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
       <c r="I2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
       <c r="I3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="81" t="s">
+      <c r="C4" s="60"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="64" t="s">
+      <c r="F4" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="65"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="81" t="s">
+      <c r="G4" s="60"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="64" t="s">
+      <c r="J4" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="65"/>
-      <c r="L4" s="66"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="61"/>
     </row>
     <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="81"/>
-      <c r="B5" s="64" t="s">
+      <c r="A5" s="62"/>
+      <c r="B5" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="64" t="s">
+      <c r="C5" s="60"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="65"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="64" t="s">
+      <c r="G5" s="60"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="65"/>
-      <c r="L5" s="66"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="61"/>
     </row>
     <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="81"/>
+      <c r="A6" s="62"/>
       <c r="B6" s="14" t="s">
         <v>9</v>
       </c>
@@ -3736,7 +3736,7 @@
       <c r="D6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="81"/>
+      <c r="E6" s="62"/>
       <c r="F6" s="14" t="s">
         <v>9</v>
       </c>
@@ -3746,7 +3746,7 @@
       <c r="H6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="81"/>
+      <c r="I6" s="62"/>
       <c r="J6" s="14" t="s">
         <v>9</v>
       </c>
@@ -4196,119 +4196,136 @@
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
-      <c r="E38" s="79" t="s">
+      <c r="E38" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="F38" s="80"/>
-      <c r="G38" s="69" t="s">
+      <c r="F38" s="58"/>
+      <c r="G38" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="H38" s="70"/>
-      <c r="I38" s="70"/>
-      <c r="J38" s="71"/>
-      <c r="K38" s="71"/>
-      <c r="L38" s="72"/>
+      <c r="H38" s="81"/>
+      <c r="I38" s="81"/>
+      <c r="J38" s="82"/>
+      <c r="K38" s="82"/>
+      <c r="L38" s="83"/>
     </row>
     <row r="39" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="15"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
-      <c r="E39" s="82" t="s">
+      <c r="E39" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="83"/>
-      <c r="G39" s="73" t="s">
+      <c r="F39" s="64"/>
+      <c r="G39" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="H39" s="74"/>
-      <c r="I39" s="75"/>
-      <c r="J39" s="76"/>
-      <c r="K39" s="77"/>
-      <c r="L39" s="78"/>
+      <c r="H39" s="70"/>
+      <c r="I39" s="71"/>
+      <c r="J39" s="75"/>
+      <c r="K39" s="76"/>
+      <c r="L39" s="77"/>
     </row>
     <row r="40" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="15"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
-      <c r="E40" s="84"/>
-      <c r="F40" s="85"/>
-      <c r="G40" s="73" t="s">
+      <c r="E40" s="65"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="H40" s="74"/>
-      <c r="I40" s="75"/>
-      <c r="J40" s="88"/>
-      <c r="K40" s="89"/>
-      <c r="L40" s="90"/>
+      <c r="H40" s="70"/>
+      <c r="I40" s="71"/>
+      <c r="J40" s="72"/>
+      <c r="K40" s="73"/>
+      <c r="L40" s="74"/>
     </row>
     <row r="41" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="15"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
       <c r="D41" s="14"/>
-      <c r="E41" s="84"/>
-      <c r="F41" s="85"/>
-      <c r="G41" s="73" t="s">
+      <c r="E41" s="65"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="H41" s="74"/>
-      <c r="I41" s="75"/>
-      <c r="J41" s="76"/>
-      <c r="K41" s="77"/>
-      <c r="L41" s="78"/>
+      <c r="H41" s="70"/>
+      <c r="I41" s="71"/>
+      <c r="J41" s="75"/>
+      <c r="K41" s="76"/>
+      <c r="L41" s="77"/>
     </row>
     <row r="42" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="15"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
-      <c r="E42" s="86"/>
-      <c r="F42" s="87"/>
-      <c r="G42" s="73" t="s">
+      <c r="E42" s="67"/>
+      <c r="F42" s="68"/>
+      <c r="G42" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="H42" s="74"/>
-      <c r="I42" s="75"/>
-      <c r="J42" s="64"/>
-      <c r="K42" s="65"/>
-      <c r="L42" s="66"/>
+      <c r="H42" s="70"/>
+      <c r="I42" s="71"/>
+      <c r="J42" s="59"/>
+      <c r="K42" s="60"/>
+      <c r="L42" s="61"/>
     </row>
     <row r="43" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="15"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
-      <c r="E43" s="79" t="s">
+      <c r="E43" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="F43" s="80"/>
-      <c r="G43" s="64"/>
-      <c r="H43" s="65"/>
-      <c r="I43" s="65"/>
-      <c r="J43" s="65"/>
-      <c r="K43" s="65"/>
-      <c r="L43" s="66"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="59"/>
+      <c r="H43" s="60"/>
+      <c r="I43" s="60"/>
+      <c r="J43" s="60"/>
+      <c r="K43" s="60"/>
+      <c r="L43" s="61"/>
     </row>
     <row r="44" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="15"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
-      <c r="E44" s="79" t="s">
+      <c r="E44" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="F44" s="80"/>
-      <c r="G44" s="64"/>
-      <c r="H44" s="65"/>
-      <c r="I44" s="65"/>
-      <c r="J44" s="65"/>
-      <c r="K44" s="65"/>
-      <c r="L44" s="66"/>
+      <c r="F44" s="58"/>
+      <c r="G44" s="59"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="60"/>
+      <c r="J44" s="60"/>
+      <c r="K44" s="60"/>
+      <c r="L44" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="F2:H3"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:L43"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="J4:L4"/>
     <mergeCell ref="E44:F44"/>
     <mergeCell ref="G44:L44"/>
     <mergeCell ref="A4:A6"/>
@@ -4325,23 +4342,6 @@
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="G39:I39"/>
     <mergeCell ref="J39:L39"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:L43"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="F2:H3"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="J3:L3"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.86614173228346403" right="0.78740157480314998" top="0.74803149606299202" bottom="0.74803149606299202" header="0.47244094488188998" footer="0.47244094488188998"/>
@@ -4377,20 +4377,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
       <c r="M1" s="20"/>
       <c r="N1" s="20"/>
       <c r="O1" s="20"/>
@@ -4398,90 +4398,90 @@
       <c r="Q1" s="21"/>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
       <c r="E2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
       <c r="I2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
       <c r="I3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="81" t="s">
+      <c r="C4" s="60"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="64" t="s">
+      <c r="F4" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="65"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="81" t="s">
+      <c r="G4" s="60"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="64" t="s">
+      <c r="J4" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="65"/>
-      <c r="L4" s="66"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="61"/>
     </row>
     <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="81"/>
-      <c r="B5" s="64" t="s">
+      <c r="A5" s="62"/>
+      <c r="B5" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="64" t="s">
+      <c r="C5" s="60"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="65"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="64" t="s">
+      <c r="G5" s="60"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="65"/>
-      <c r="L5" s="66"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="61"/>
     </row>
     <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="81"/>
+      <c r="A6" s="62"/>
       <c r="B6" s="14" t="s">
         <v>9</v>
       </c>
@@ -4491,7 +4491,7 @@
       <c r="D6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="81"/>
+      <c r="E6" s="62"/>
       <c r="F6" s="14" t="s">
         <v>9</v>
       </c>
@@ -4501,7 +4501,7 @@
       <c r="H6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="81"/>
+      <c r="I6" s="62"/>
       <c r="J6" s="14" t="s">
         <v>9</v>
       </c>
@@ -4951,119 +4951,136 @@
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
-      <c r="E38" s="79" t="s">
+      <c r="E38" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="F38" s="80"/>
-      <c r="G38" s="69" t="s">
+      <c r="F38" s="58"/>
+      <c r="G38" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="H38" s="70"/>
-      <c r="I38" s="70"/>
-      <c r="J38" s="71"/>
-      <c r="K38" s="71"/>
-      <c r="L38" s="72"/>
+      <c r="H38" s="81"/>
+      <c r="I38" s="81"/>
+      <c r="J38" s="82"/>
+      <c r="K38" s="82"/>
+      <c r="L38" s="83"/>
     </row>
     <row r="39" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="15"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
-      <c r="E39" s="82" t="s">
+      <c r="E39" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="83"/>
-      <c r="G39" s="73" t="s">
+      <c r="F39" s="64"/>
+      <c r="G39" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="H39" s="74"/>
-      <c r="I39" s="75"/>
-      <c r="J39" s="76"/>
-      <c r="K39" s="77"/>
-      <c r="L39" s="78"/>
+      <c r="H39" s="70"/>
+      <c r="I39" s="71"/>
+      <c r="J39" s="75"/>
+      <c r="K39" s="76"/>
+      <c r="L39" s="77"/>
     </row>
     <row r="40" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="15"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
-      <c r="E40" s="84"/>
-      <c r="F40" s="85"/>
-      <c r="G40" s="73" t="s">
+      <c r="E40" s="65"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="H40" s="74"/>
-      <c r="I40" s="75"/>
-      <c r="J40" s="88"/>
-      <c r="K40" s="89"/>
-      <c r="L40" s="90"/>
+      <c r="H40" s="70"/>
+      <c r="I40" s="71"/>
+      <c r="J40" s="72"/>
+      <c r="K40" s="73"/>
+      <c r="L40" s="74"/>
     </row>
     <row r="41" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="15"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
       <c r="D41" s="14"/>
-      <c r="E41" s="84"/>
-      <c r="F41" s="85"/>
-      <c r="G41" s="73" t="s">
+      <c r="E41" s="65"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="H41" s="74"/>
-      <c r="I41" s="75"/>
-      <c r="J41" s="76"/>
-      <c r="K41" s="77"/>
-      <c r="L41" s="78"/>
+      <c r="H41" s="70"/>
+      <c r="I41" s="71"/>
+      <c r="J41" s="75"/>
+      <c r="K41" s="76"/>
+      <c r="L41" s="77"/>
     </row>
     <row r="42" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="15"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
-      <c r="E42" s="86"/>
-      <c r="F42" s="87"/>
-      <c r="G42" s="73" t="s">
+      <c r="E42" s="67"/>
+      <c r="F42" s="68"/>
+      <c r="G42" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="H42" s="74"/>
-      <c r="I42" s="75"/>
-      <c r="J42" s="64"/>
-      <c r="K42" s="65"/>
-      <c r="L42" s="66"/>
+      <c r="H42" s="70"/>
+      <c r="I42" s="71"/>
+      <c r="J42" s="59"/>
+      <c r="K42" s="60"/>
+      <c r="L42" s="61"/>
     </row>
     <row r="43" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="15"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
-      <c r="E43" s="79" t="s">
+      <c r="E43" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="F43" s="80"/>
-      <c r="G43" s="64"/>
-      <c r="H43" s="65"/>
-      <c r="I43" s="65"/>
-      <c r="J43" s="65"/>
-      <c r="K43" s="65"/>
-      <c r="L43" s="66"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="59"/>
+      <c r="H43" s="60"/>
+      <c r="I43" s="60"/>
+      <c r="J43" s="60"/>
+      <c r="K43" s="60"/>
+      <c r="L43" s="61"/>
     </row>
     <row r="44" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="15"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
-      <c r="E44" s="79" t="s">
+      <c r="E44" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="F44" s="80"/>
-      <c r="G44" s="64"/>
-      <c r="H44" s="65"/>
-      <c r="I44" s="65"/>
-      <c r="J44" s="65"/>
-      <c r="K44" s="65"/>
-      <c r="L44" s="66"/>
+      <c r="F44" s="58"/>
+      <c r="G44" s="59"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="60"/>
+      <c r="J44" s="60"/>
+      <c r="K44" s="60"/>
+      <c r="L44" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="F2:H3"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:L43"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="J4:L4"/>
     <mergeCell ref="E44:F44"/>
     <mergeCell ref="G44:L44"/>
     <mergeCell ref="A4:A6"/>
@@ -5080,23 +5097,6 @@
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="G39:I39"/>
     <mergeCell ref="J39:L39"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:L43"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="F2:H3"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="J3:L3"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.86614173228346403" right="0.78740157480314998" top="0.74803149606299202" bottom="0.74803149606299202" header="0.47244094488188998" footer="0.47244094488188998"/>
@@ -5116,7 +5116,7 @@
   <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5132,20 +5132,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
       <c r="M1" s="20"/>
       <c r="N1" s="20"/>
       <c r="O1" s="20"/>
@@ -5153,90 +5153,90 @@
       <c r="Q1" s="21"/>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
       <c r="E2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
       <c r="I2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
       <c r="I3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="81" t="s">
+      <c r="C4" s="60"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="64" t="s">
+      <c r="F4" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="65"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="81" t="s">
+      <c r="G4" s="60"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="64" t="s">
+      <c r="J4" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="65"/>
-      <c r="L4" s="66"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="61"/>
     </row>
     <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="81"/>
-      <c r="B5" s="64" t="s">
+      <c r="A5" s="62"/>
+      <c r="B5" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="64" t="s">
+      <c r="C5" s="60"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="65"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="64" t="s">
+      <c r="G5" s="60"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="65"/>
-      <c r="L5" s="66"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="61"/>
     </row>
     <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="81"/>
+      <c r="A6" s="62"/>
       <c r="B6" s="14" t="s">
         <v>9</v>
       </c>
@@ -5246,7 +5246,7 @@
       <c r="D6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="81"/>
+      <c r="E6" s="62"/>
       <c r="F6" s="14" t="s">
         <v>9</v>
       </c>
@@ -5256,7 +5256,7 @@
       <c r="H6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="81"/>
+      <c r="I6" s="62"/>
       <c r="J6" s="14" t="s">
         <v>9</v>
       </c>
@@ -5706,119 +5706,136 @@
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
-      <c r="E38" s="79" t="s">
+      <c r="E38" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="F38" s="80"/>
-      <c r="G38" s="69" t="s">
+      <c r="F38" s="58"/>
+      <c r="G38" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="H38" s="70"/>
-      <c r="I38" s="70"/>
-      <c r="J38" s="71"/>
-      <c r="K38" s="71"/>
-      <c r="L38" s="72"/>
+      <c r="H38" s="81"/>
+      <c r="I38" s="81"/>
+      <c r="J38" s="82"/>
+      <c r="K38" s="82"/>
+      <c r="L38" s="83"/>
     </row>
     <row r="39" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="15"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
-      <c r="E39" s="82" t="s">
+      <c r="E39" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="83"/>
-      <c r="G39" s="73" t="s">
+      <c r="F39" s="64"/>
+      <c r="G39" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="H39" s="74"/>
-      <c r="I39" s="75"/>
-      <c r="J39" s="76"/>
-      <c r="K39" s="77"/>
-      <c r="L39" s="78"/>
+      <c r="H39" s="70"/>
+      <c r="I39" s="71"/>
+      <c r="J39" s="75"/>
+      <c r="K39" s="76"/>
+      <c r="L39" s="77"/>
     </row>
     <row r="40" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="15"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
-      <c r="E40" s="84"/>
-      <c r="F40" s="85"/>
-      <c r="G40" s="73" t="s">
+      <c r="E40" s="65"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="H40" s="74"/>
-      <c r="I40" s="75"/>
-      <c r="J40" s="88"/>
-      <c r="K40" s="89"/>
-      <c r="L40" s="90"/>
+      <c r="H40" s="70"/>
+      <c r="I40" s="71"/>
+      <c r="J40" s="72"/>
+      <c r="K40" s="73"/>
+      <c r="L40" s="74"/>
     </row>
     <row r="41" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="15"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
       <c r="D41" s="14"/>
-      <c r="E41" s="84"/>
-      <c r="F41" s="85"/>
-      <c r="G41" s="73" t="s">
+      <c r="E41" s="65"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="H41" s="74"/>
-      <c r="I41" s="75"/>
-      <c r="J41" s="76"/>
-      <c r="K41" s="77"/>
-      <c r="L41" s="78"/>
+      <c r="H41" s="70"/>
+      <c r="I41" s="71"/>
+      <c r="J41" s="75"/>
+      <c r="K41" s="76"/>
+      <c r="L41" s="77"/>
     </row>
     <row r="42" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="15"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
-      <c r="E42" s="86"/>
-      <c r="F42" s="87"/>
-      <c r="G42" s="73" t="s">
+      <c r="E42" s="67"/>
+      <c r="F42" s="68"/>
+      <c r="G42" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="H42" s="74"/>
-      <c r="I42" s="75"/>
-      <c r="J42" s="64"/>
-      <c r="K42" s="65"/>
-      <c r="L42" s="66"/>
+      <c r="H42" s="70"/>
+      <c r="I42" s="71"/>
+      <c r="J42" s="59"/>
+      <c r="K42" s="60"/>
+      <c r="L42" s="61"/>
     </row>
     <row r="43" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="15"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
-      <c r="E43" s="79" t="s">
+      <c r="E43" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="F43" s="80"/>
-      <c r="G43" s="64"/>
-      <c r="H43" s="65"/>
-      <c r="I43" s="65"/>
-      <c r="J43" s="65"/>
-      <c r="K43" s="65"/>
-      <c r="L43" s="66"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="59"/>
+      <c r="H43" s="60"/>
+      <c r="I43" s="60"/>
+      <c r="J43" s="60"/>
+      <c r="K43" s="60"/>
+      <c r="L43" s="61"/>
     </row>
     <row r="44" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="15"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
-      <c r="E44" s="79" t="s">
+      <c r="E44" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="F44" s="80"/>
-      <c r="G44" s="64"/>
-      <c r="H44" s="65"/>
-      <c r="I44" s="65"/>
-      <c r="J44" s="65"/>
-      <c r="K44" s="65"/>
-      <c r="L44" s="66"/>
+      <c r="F44" s="58"/>
+      <c r="G44" s="59"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="60"/>
+      <c r="J44" s="60"/>
+      <c r="K44" s="60"/>
+      <c r="L44" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="F2:H3"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:L43"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="J4:L4"/>
     <mergeCell ref="E44:F44"/>
     <mergeCell ref="G44:L44"/>
     <mergeCell ref="A4:A6"/>
@@ -5835,23 +5852,6 @@
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="G39:I39"/>
     <mergeCell ref="J39:L39"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:L43"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="F2:H3"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="J3:L3"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.86614173228346403" right="0.78740157480314998" top="0.74803149606299202" bottom="0.74803149606299202" header="0.47244094488188998" footer="0.47244094488188998"/>
